--- a/DATASET/Ophiocordyceps.xlsx
+++ b/DATASET/Ophiocordyceps.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="816">
   <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Voucher information</t>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Voucher</t>
   </si>
   <si>
     <t>ITS</t>
@@ -3092,8 +3092,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3417,7 +3420,7 @@
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="O117" sqref="O117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3432,10 +3435,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
